--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21156" windowHeight="7008"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10824"/>
   </bookViews>
   <sheets>
     <sheet name="变量地址" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="195">
   <si>
     <t>变量名称</t>
   </si>
@@ -588,6 +588,18 @@
   </si>
   <si>
     <t>8bit</t>
+  </si>
+  <si>
+    <t>电磁铁449~464</t>
+  </si>
+  <si>
+    <t>电磁铁465~480</t>
+  </si>
+  <si>
+    <t>电磁铁481~496</t>
+  </si>
+  <si>
+    <t>电磁铁497~512</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1022,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1499,10 +1511,10 @@
         <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1510,10 +1522,10 @@
         <v>147</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1521,10 +1533,10 @@
         <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1532,10 +1544,10 @@
         <v>148</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1543,7 +1555,7 @@
         <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -1554,7 +1566,7 @@
         <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
         <v>63</v>
@@ -1565,7 +1577,7 @@
         <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
@@ -1576,7 +1588,7 @@
         <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
@@ -1587,7 +1599,7 @@
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
@@ -1598,7 +1610,7 @@
         <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
         <v>63</v>
@@ -1609,7 +1621,7 @@
         <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
@@ -1620,7 +1632,7 @@
         <v>152</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
@@ -1631,7 +1643,7 @@
         <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -1642,7 +1654,7 @@
         <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
         <v>63</v>
@@ -1653,7 +1665,7 @@
         <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
         <v>63</v>
@@ -1663,20 +1675,44 @@
       <c r="A59" t="s">
         <v>154</v>
       </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>86</v>
       </c>
+      <c r="B60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>155</v>
       </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>87</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
